--- a/WEO統計ページ/XLSXTable/履歴/NGDPDPC_2020.xlsx
+++ b/WEO統計ページ/XLSXTable/履歴/NGDPDPC_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c144b2c14e6297/ドキュメント/GitHub/WorldData/WEO統計ページ/XLSXTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B46C64-DC4D-4CB0-A760-A8A5B7A669B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A881F5-E746-43AC-9D43-28ECC2897A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58470" yWindow="1935" windowWidth="24480" windowHeight="18225" xr2:uid="{ECC38A63-AEEE-48D5-A838-6DE55F023A40}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="11033" windowHeight="9157" xr2:uid="{FC80C8BE-C91F-42E5-A323-50DC476600F6}"/>
   </bookViews>
   <sheets>
     <sheet name="NGDPDPC_2020" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+  <si>
+    <t>Rank</t>
+  </si>
   <si>
     <t>Country</t>
   </si>
@@ -1000,1563 +1003,2145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698DF23C-73D1-4B6E-86D5-01833F3B14ED}">
-  <sheetPr codeName="Sheet40"/>
-  <dimension ref="A1:B194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808AB346-8E6F-40EC-9D1D-83F29263CA10}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>117616.151</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>86313.771999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>86138.870999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>68275.277000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>64461.618000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>61466.819000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>61094.328999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>61075.932000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>53529.218000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>53249.731</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>52522.605000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>50962.499000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>48837.35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>48827.137999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
         <v>47341.767999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>46446.055999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>45640.983999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>45615.358999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>44842.684999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>43573.195</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>41343.891000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>40536.857000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>40230.544999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>40160.067000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>37648.953000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>37100.934000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
         <v>36973.845000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
         <v>33653.203999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>32643.179</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>31956.855</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
         <v>31818.84</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
         <v>28571.439999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
         <v>28386.27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
         <v>27214.292000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
         <v>27174.73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>25610.724999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
         <v>25572.518</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
         <v>25451.13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
         <v>24342.844000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
         <v>23911.344000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
         <v>23565.55</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
         <v>23464.295999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
         <v>23271.403999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
         <v>22224.61</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
         <v>20348.941999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
         <v>19541.007000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
         <v>18553.579000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
         <v>18013.226999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
         <v>17951.935000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
         <v>17570.395</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>17076.319</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
         <v>16099.958000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
         <v>15792.61</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
         <v>15198.839</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
         <v>14868.061</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
         <v>14697.164000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
         <v>14382.232</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
         <v>14372.314</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
         <v>14235.574000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
         <v>13342.722</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
         <v>13056.638000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
         <v>13021.962</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
         <v>12163.927</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
         <v>10525.001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
         <v>10400.218999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
         <v>10346.097</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
         <v>10165.58</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
         <v>10074.726000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
         <v>9803.0660000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
         <v>9222.7090000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
         <v>9121.6360000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
         <v>9010.9290000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
         <v>8742.2170000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
         <v>8576.4860000000008</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
         <v>8489.3320000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
         <v>8381.0120000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
         <v>8364.8680000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
         <v>7810.3040000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
         <v>7733.8029999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
         <v>7553.509</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
         <v>7289.442</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
         <v>7170.5029999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
         <v>7058.3339999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
         <v>7057.0720000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
         <v>7045.6289999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A87" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
         <v>6952.7020000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
         <v>6872.22</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
         <v>6672.5209999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
         <v>6536.527</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
         <v>6328.1040000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
         <v>5863.1819999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93">
         <v>5800.39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
         <v>5630.9830000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95">
         <v>5502.4260000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
         <v>5469.7579999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A97" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97">
         <v>5363.2349999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98">
         <v>5353.3029999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A99" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99">
         <v>5210.5429999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A100" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
         <v>5162.3220000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
         <v>5072.5990000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A102" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102">
         <v>4920.0140000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A103" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103">
         <v>4885.3959999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A104" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104">
         <v>4782.0919999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A105" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
         <v>4610.0730000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A106" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106">
         <v>4547.33</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A107" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107">
         <v>4438.5810000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A108" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108">
         <v>4410.402</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A109" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109">
         <v>4377.5420000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A110" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110">
         <v>4308.2860000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A111" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111">
         <v>4308.0150000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A112" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112">
         <v>4297.8289999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A113" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
         <v>4280.4290000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A114" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114">
         <v>4268.6809999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A115" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115">
         <v>4004.3209999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A116" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116">
         <v>3965.0970000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A117" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117">
         <v>3960.335</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A118" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118">
         <v>3937.6669999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A119" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119">
         <v>3919.4650000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A120" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120">
         <v>3846.1750000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A121" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121">
         <v>3829.739</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A122" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122">
         <v>3802.4380000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A123" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
         <v>3780.393</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A124" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
         <v>3757.585</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A125" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
         <v>3649.1509999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A126" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
         <v>3569.9720000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A127" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
         <v>3548.8919999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A128" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128">
         <v>3535.09</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A129" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129">
         <v>3469.154</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A130" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130">
         <v>3375.4380000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A131" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131">
         <v>3341.002</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A132" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
         <v>3312.739</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A133" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
         <v>3223.83</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A134" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
         <v>3172.556</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A135" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
         <v>3044.7440000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A136" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
         <v>2528.9969999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A137" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137">
         <v>2332.5259999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A138" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
         <v>2326.6640000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A139" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
         <v>2274.4690000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A140" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140">
         <v>2270.348</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A141" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141">
         <v>2209.1089999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A142" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142">
         <v>2181.87</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A143" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143">
         <v>2136.009</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A144" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144">
         <v>2124.7959999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A145" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145">
         <v>2118.5819999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A146" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146">
         <v>2099.1350000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A147" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147">
         <v>2067.9870000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A148" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148">
         <v>2040.6769999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A149" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149">
         <v>2014.193</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A150" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150">
         <v>1989.9390000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A151" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151">
         <v>1959.6780000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A152" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152">
         <v>1952.183</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A153" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153">
         <v>1915.5519999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A154" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154">
         <v>1874.17</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A155" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155">
         <v>1725.0170000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A156" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156">
         <v>1676.769</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A157" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157">
         <v>1566.6020000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A158" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158">
         <v>1539.354</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A159" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159">
         <v>1510.5920000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A160" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160">
         <v>1465.2439999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A161" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161">
         <v>1462.4639999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A162" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162">
         <v>1376.5119999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A163" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163">
         <v>1270.961</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A164" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164">
         <v>1239.74</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A165" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165">
         <v>1235.4760000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A166" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166">
         <v>1139.192</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A167" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167">
         <v>1092.6130000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A168" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168">
         <v>1014.795</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A169" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169">
         <v>1008.687</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A170" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170">
         <v>969.01400000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A171" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171">
         <v>958.26499999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A172" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172">
         <v>919.32899999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A173" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173">
         <v>889.73500000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A174" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174">
         <v>876.51099999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A175" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175">
         <v>858.44500000000005</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A176" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176">
         <v>838.84699999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A177" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177">
         <v>837.63599999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A178" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178">
         <v>831.03399999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A179" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179">
         <v>824.24800000000005</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A180" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180">
         <v>803.45600000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A181" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181">
         <v>794.69600000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A182" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182">
         <v>747.88599999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A183" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183">
         <v>633.31100000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A184" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184">
         <v>600.47500000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A185" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185">
         <v>583.95600000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A186" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186">
         <v>568.60599999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A187" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187">
         <v>567.59</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A188" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188">
         <v>546.42999999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A189" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189">
         <v>516.66399999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A190" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190">
         <v>477.375</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A191" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191">
         <v>475.18799999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A192" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192">
         <v>456.58199999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A193" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193">
         <v>393.589</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A194" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194">
         <v>259.90600000000001</v>
       </c>
     </row>
